--- a/RADsimulationRestuls.xlsx
+++ b/RADsimulationRestuls.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="260" windowWidth="38300" windowHeight="19380" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="37260" windowHeight="19100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="100">
   <si>
     <t>Enzyme</t>
   </si>
@@ -183,13 +183,145 @@
     <t>Rad tags</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>r=0.6</t>
-  </si>
-  <si>
     <t>mistakes after random selection</t>
+  </si>
+  <si>
+    <t>mistakes with only shared-by-all</t>
+  </si>
+  <si>
+    <t>shallow</t>
+  </si>
+  <si>
+    <t>percentage of reads kept</t>
+  </si>
+  <si>
+    <t>/SP10/SP10</t>
+  </si>
+  <si>
+    <t>/SP11/SP11</t>
+  </si>
+  <si>
+    <t>/SP12/SP12</t>
+  </si>
+  <si>
+    <t>/SP13/SP13</t>
+  </si>
+  <si>
+    <t>/SP14/SP14</t>
+  </si>
+  <si>
+    <t>/SP15/SP15</t>
+  </si>
+  <si>
+    <t>/SP16/SP16</t>
+  </si>
+  <si>
+    <t>/SP17/SP17</t>
+  </si>
+  <si>
+    <t>/SP18/SP18</t>
+  </si>
+  <si>
+    <t>/SP19/SP19</t>
+  </si>
+  <si>
+    <t>/SP1/SP1</t>
+  </si>
+  <si>
+    <t>/SP2/SP2</t>
+  </si>
+  <si>
+    <t>/SP3/SP3</t>
+  </si>
+  <si>
+    <t>/SP4/SP4</t>
+  </si>
+  <si>
+    <t>/SP5/SP5</t>
+  </si>
+  <si>
+    <t>/SP6/SP6</t>
+  </si>
+  <si>
+    <t>/SP7/SP7</t>
+  </si>
+  <si>
+    <t>/SP8/SP8</t>
+  </si>
+  <si>
+    <t>/SP9/SP9</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>_selected/SP10/SP10</t>
+  </si>
+  <si>
+    <t>_selected/SP11/SP11</t>
+  </si>
+  <si>
+    <t>_selected/SP12/SP12</t>
+  </si>
+  <si>
+    <t>_selected/SP13/SP13</t>
+  </si>
+  <si>
+    <t>_selected/SP14/SP14</t>
+  </si>
+  <si>
+    <t>_selected/SP15/SP15</t>
+  </si>
+  <si>
+    <t>_selected/SP16/SP16</t>
+  </si>
+  <si>
+    <t>_selected/SP17/SP17</t>
+  </si>
+  <si>
+    <t>_selected/SP18/SP18</t>
+  </si>
+  <si>
+    <t>_selected/SP19/SP19</t>
+  </si>
+  <si>
+    <t>_selected/SP1/SP1</t>
+  </si>
+  <si>
+    <t>_selected/SP2/SP2</t>
+  </si>
+  <si>
+    <t>_selected/SP3/SP3</t>
+  </si>
+  <si>
+    <t>_selected/SP4/SP4</t>
+  </si>
+  <si>
+    <t>_selected/SP5/SP5</t>
+  </si>
+  <si>
+    <t>_selected/SP6/SP6</t>
+  </si>
+  <si>
+    <t>_selected/SP7/SP7</t>
+  </si>
+  <si>
+    <t>_selected/SP8/SP8</t>
+  </si>
+  <si>
+    <t>_selected/SP9/SP9</t>
+  </si>
+  <si>
+    <t>percentage of reads kept&amp;shared by all</t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
 </sst>
 </file>
@@ -240,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +384,14 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -261,8 +399,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="140">
+  <cellStyleXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -403,17 +570,108 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="97"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="97"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="140">
+  <cellStyles count="222">
     <cellStyle name="Bad" xfId="97" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -484,6 +742,47 @@
     <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -553,6 +852,47 @@
     <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -882,65 +1222,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="23" customWidth="1"/>
-    <col min="14" max="14" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="17.5" customWidth="1"/>
-    <col min="16" max="17" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="4.5" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="20" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="1:23">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" t="s">
+      <c r="V1" s="11"/>
+      <c r="W1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -951,55 +1294,64 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>20</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" t="s">
         <v>6</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1">
+    <row r="3" spans="1:23" s="1" customFormat="1">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1009,56 +1361,56 @@
       <c r="C3" s="1">
         <v>14</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>525</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>89.29</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0.1</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>138</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>12.32</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>15</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>11296</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>138</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>38.33</v>
       </c>
-      <c r="R3" s="1">
+      <c r="U3" s="1">
         <v>13</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="1">
+      <c r="W3" s="1">
         <v>81201</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="2" customFormat="1">
+    <row r="4" spans="1:23" s="2" customFormat="1">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1068,56 +1420,56 @@
       <c r="C4" s="2">
         <v>14</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>525</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>89.29</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>0.1</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>138</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>12.32</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>15</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>11296</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="2">
         <v>138</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>38.33</v>
       </c>
-      <c r="R4" s="2">
+      <c r="U4" s="2">
         <v>15</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="2">
+      <c r="W4" s="2">
         <v>81202</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1">
+    <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1127,56 +1479,56 @@
       <c r="C5" s="1">
         <v>18</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>525</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>89.29</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0.1</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>138</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>12.32</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>15</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>11296</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>138</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>38.33</v>
       </c>
-      <c r="R5" s="1">
+      <c r="U5" s="1">
         <v>11</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="1">
+      <c r="W5" s="1">
         <v>81203</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="1" customFormat="1">
+    <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1186,56 +1538,56 @@
       <c r="C6" s="1">
         <v>14</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>525</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>89.29</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0.1</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>138</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>12.32</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>15</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>11296</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>138</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>38.33</v>
       </c>
-      <c r="R6" s="1">
+      <c r="U6" s="1">
         <v>17</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="1">
+      <c r="W6" s="1">
         <v>81204</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="1" customFormat="1">
+    <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1245,56 +1597,56 @@
       <c r="C7" s="1">
         <v>32</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>525</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>89.29</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.1</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>1</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>138</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>12.32</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>15</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>11296</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>138</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>38.33</v>
       </c>
-      <c r="R7" s="1">
+      <c r="U7" s="1">
         <v>13</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="1">
+      <c r="W7" s="1">
         <v>81205</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1">
+    <row r="8" spans="1:23" s="2" customFormat="1">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -1304,56 +1656,56 @@
       <c r="C8" s="2">
         <v>14</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>525</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>89.29</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>0.1</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>1</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>138</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>12.32</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>13</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>12177</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>138</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>21.4</v>
       </c>
-      <c r="R8" s="2">
+      <c r="U8" s="2">
         <v>13</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="2">
+      <c r="W8" s="2">
         <v>81206</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="1" customFormat="1">
+    <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1363,56 +1715,56 @@
       <c r="C9" s="1">
         <v>22</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>525</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>89.29</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0.1</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>1</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>138</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>12.32</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>17</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>10695</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>138</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>47.75</v>
       </c>
-      <c r="R9" s="1">
+      <c r="U9" s="1">
         <v>13</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="1">
+      <c r="W9" s="1">
         <v>81301</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="1" customFormat="1">
+    <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1422,56 +1774,56 @@
       <c r="C10" s="1">
         <v>20</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>525</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>89.29</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.1</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>1</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>138</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>12.32</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>17</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>10695</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>138</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>47.75</v>
       </c>
-      <c r="R10" s="1">
+      <c r="U10" s="1">
         <v>15</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="1">
+      <c r="W10" s="1">
         <v>81302</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1">
+    <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -1481,56 +1833,56 @@
       <c r="C11" s="1">
         <v>20</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>525</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>89.29</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>0.1</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>1</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>138</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>12.32</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>17</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>10695</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>138</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>47.75</v>
       </c>
-      <c r="R11" s="1">
+      <c r="U11" s="1">
         <v>17</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T11" s="1">
+      <c r="W11" s="1">
         <v>81303</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1">
+    <row r="12" spans="1:23" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -1540,53 +1892,53 @@
       <c r="C12" s="2">
         <v>20</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>525</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>89.29</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>0.1</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>127</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>11.28</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>13</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>127</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <v>20</v>
       </c>
-      <c r="R12" s="2">
+      <c r="U12" s="2">
         <v>13</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="V12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T12" s="2">
+      <c r="W12" s="2">
         <v>81206</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1">
+    <row r="13" spans="1:23" s="2" customFormat="1">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -1596,53 +1948,53 @@
       <c r="C13" s="2">
         <v>18</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>525</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>89.29</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>0.1</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>1</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>127</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>11.28</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>13</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q13" s="2">
         <v>127</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="2">
         <v>20</v>
       </c>
-      <c r="R13" s="2">
+      <c r="U13" s="2">
         <v>15</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="V13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T13" s="2">
+      <c r="W13" s="2">
         <v>81206</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1">
+    <row r="14" spans="1:23" s="2" customFormat="1">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -1652,53 +2004,53 @@
       <c r="C14" s="2">
         <v>22</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>2</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>525</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>89.29</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>0.1</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>1</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>127</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>11.28</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>13</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>127</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
         <v>20</v>
       </c>
-      <c r="R14" s="2">
+      <c r="U14" s="2">
         <v>11</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T14" s="2">
+      <c r="W14" s="2">
         <v>81206</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1">
+    <row r="15" spans="1:23" s="2" customFormat="1">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -1708,53 +2060,53 @@
       <c r="C15" s="2">
         <v>16</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>2</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>525</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>89.29</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>0.1</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>1</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>127</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>11.28</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <v>13</v>
       </c>
-      <c r="P15" s="2">
+      <c r="Q15" s="2">
         <v>127</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="R15" s="2">
         <v>20</v>
       </c>
-      <c r="R15" s="2">
+      <c r="U15" s="2">
         <v>17</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="V15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T15" s="2">
+      <c r="W15" s="2">
         <v>81206</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1">
+    <row r="16" spans="1:23" s="2" customFormat="1">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -1764,53 +2116,53 @@
       <c r="C16" s="2">
         <v>16</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>525</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>89.29</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>0.1</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>1</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>127</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>11.28</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>13</v>
       </c>
-      <c r="P16" s="2">
+      <c r="Q16" s="2">
         <v>127</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="R16" s="2">
         <v>20</v>
       </c>
-      <c r="R16" s="2">
+      <c r="U16" s="2">
         <v>19</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="V16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T16" s="2">
+      <c r="W16" s="2">
         <v>81206</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1">
+    <row r="17" spans="1:23" s="2" customFormat="1">
       <c r="B17" s="2">
         <v>8</v>
       </c>
@@ -1820,98 +2172,98 @@
       <c r="D17" s="2">
         <v>32</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>2</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>525</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>89.29</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>0.1</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <v>1</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <v>126</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>11.15</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
         <v>13</v>
       </c>
-      <c r="O17" s="2">
+      <c r="P17" s="2">
         <v>11857</v>
       </c>
-      <c r="P17" s="2">
+      <c r="Q17" s="2">
         <v>127</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="R17" s="2">
         <v>19.690000000000001</v>
       </c>
-      <c r="R17" s="2">
+      <c r="U17" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1">
+    <row r="18" spans="1:23" s="2" customFormat="1">
       <c r="B18" s="2">
         <v>14</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>24</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>2</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>525</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>89.29</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>0.1</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <v>1</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>127</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>11.27</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O18" s="2">
         <v>13</v>
       </c>
-      <c r="P18" s="2">
+      <c r="Q18" s="2">
         <v>127</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="R18" s="2">
         <v>19.57</v>
       </c>
-      <c r="R18" s="2">
+      <c r="U18" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="2" customFormat="1"/>
-    <row r="20" spans="1:20" s="1" customFormat="1">
+    <row r="19" spans="1:23" s="2" customFormat="1"/>
+    <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1921,56 +2273,56 @@
       <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>2</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>525</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>89.29</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>0.05</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>1</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>378</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>33.479999999999997</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>15</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>11296</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>378</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>73.400000000000006</v>
       </c>
-      <c r="R20" s="1">
+      <c r="U20" s="1">
         <v>15</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T20" s="1">
+      <c r="W20" s="1">
         <v>81207</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="1" customFormat="1">
+    <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1980,56 +2332,56 @@
       <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>525</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>89.29</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>0</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>1</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>1005</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>88.86</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>15</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>73210</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>1005</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>95.81</v>
       </c>
-      <c r="R21" s="1">
+      <c r="U21" s="1">
         <v>15</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T21" s="1">
+      <c r="W21" s="1">
         <v>81901</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="1" customFormat="1" ht="16" customHeight="1">
+    <row r="22" spans="1:23" s="1" customFormat="1" ht="16" customHeight="1">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -2039,56 +2391,56 @@
       <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>30</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>288</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>24.85</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>0.05</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>1</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>218</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>9.64</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>17</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>10269</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>211</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <v>23.42</v>
       </c>
-      <c r="R22" s="1">
+      <c r="U22" s="1">
         <v>15</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T22" s="1">
+      <c r="W22" s="1">
         <v>81401</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="1" customFormat="1">
+    <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -2098,56 +2450,56 @@
       <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>30</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>288</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>24.85</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>0.1</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>1</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>71</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <v>3.2</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>17</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>7425</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>69</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="R23" s="1">
         <v>9.0299999999999994</v>
       </c>
-      <c r="R23" s="1">
+      <c r="U23" s="1">
         <v>15</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T23" s="1">
+      <c r="W23" s="1">
         <v>81402</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -2158,56 +2510,59 @@
         <v>0</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
         <v>30</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>288</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>24.85</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>0.1</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>1</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>71</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>3.2</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>15</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>8426</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <v>71</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="R24" s="1">
         <v>8.23</v>
       </c>
-      <c r="R24" s="1">
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1">
         <v>15</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="V24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T24" s="1">
+      <c r="W24" s="1">
         <v>81403</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -2218,125 +2573,593 @@
         <v>4</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
         <v>30</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>7532</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>90.21</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <v>0.1</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>1</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>1909</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <v>11.94</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>15</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>231047</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <v>1909</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="R25" s="1">
         <v>15.28</v>
       </c>
-      <c r="R25" s="1">
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1">
         <v>15</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="V25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T25" s="1">
+      <c r="W25" s="1">
         <v>81701</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>2</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>2</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>2</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="N29" s="1">
+      <c r="M29" s="2"/>
+      <c r="O29" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
-      <c r="E30">
+    <row r="30" spans="1:23">
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>10</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>9</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>15.79</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>11</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.1</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>3</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>2.65</v>
       </c>
     </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31">
+        <v>615</v>
+      </c>
+      <c r="I31">
+        <v>89.65</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31">
+        <v>0.1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>163</v>
+      </c>
+      <c r="N31">
+        <v>12.17</v>
+      </c>
+      <c r="O31" s="1">
+        <v>13</v>
+      </c>
+      <c r="P31">
+        <v>20240</v>
+      </c>
+      <c r="Q31">
+        <v>163</v>
+      </c>
+      <c r="R31">
+        <v>17.53</v>
+      </c>
+      <c r="U31">
+        <v>17</v>
+      </c>
+      <c r="V31" t="s">
+        <v>15</v>
+      </c>
+      <c r="W31">
+        <v>90101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32">
+        <v>615</v>
+      </c>
+      <c r="I32">
+        <v>89.65</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <v>0.1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>160</v>
+      </c>
+      <c r="N32">
+        <v>11.9</v>
+      </c>
+      <c r="O32" s="1">
+        <v>13</v>
+      </c>
+      <c r="P32">
+        <v>20240</v>
+      </c>
+      <c r="Q32">
+        <v>160</v>
+      </c>
+      <c r="R32">
+        <v>16.93</v>
+      </c>
+      <c r="S32">
+        <v>73.61</v>
+      </c>
+      <c r="T32">
+        <v>13.98</v>
+      </c>
+      <c r="U32">
+        <v>17</v>
+      </c>
+      <c r="V32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W32">
+        <v>90102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="6" customFormat="1">
+      <c r="A33" s="5">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>6</v>
+      </c>
+      <c r="F33" s="6">
+        <v>30</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="6">
+        <v>615</v>
+      </c>
+      <c r="I33" s="6">
+        <v>89.65</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L33" s="6">
+        <v>1</v>
+      </c>
+      <c r="M33" s="6">
+        <v>134</v>
+      </c>
+      <c r="N33" s="6">
+        <v>10.01</v>
+      </c>
+      <c r="O33" s="7">
+        <v>13</v>
+      </c>
+      <c r="P33" s="6">
+        <v>20240</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>134</v>
+      </c>
+      <c r="R33" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="S33" s="6">
+        <v>72.739999999999995</v>
+      </c>
+      <c r="T33" s="6">
+        <v>11.76</v>
+      </c>
+      <c r="U33" s="6">
+        <v>17</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W33" s="6">
+        <v>90103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" s="9" customFormat="1">
+      <c r="A34" s="8">
+        <v>2</v>
+      </c>
+      <c r="B34" s="9">
+        <v>6</v>
+      </c>
+      <c r="C34" s="9">
+        <v>10</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9">
+        <v>30</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="9">
+        <v>615</v>
+      </c>
+      <c r="I34" s="9">
+        <v>89.65</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L34" s="9">
+        <v>1</v>
+      </c>
+      <c r="M34" s="9">
+        <v>171</v>
+      </c>
+      <c r="N34" s="9">
+        <v>12.74</v>
+      </c>
+      <c r="O34" s="10">
+        <v>13</v>
+      </c>
+      <c r="P34" s="9">
+        <v>20240</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>171</v>
+      </c>
+      <c r="R34" s="9">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="S34" s="9">
+        <v>73.349999999999994</v>
+      </c>
+      <c r="T34" s="9">
+        <v>14.98</v>
+      </c>
+      <c r="U34" s="9">
+        <v>17</v>
+      </c>
+      <c r="V34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="W34" s="9">
+        <v>90104</v>
+      </c>
+      <c r="X34" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" s="9" customFormat="1">
+      <c r="A35" s="8">
+        <v>2</v>
+      </c>
+      <c r="B35" s="9">
+        <v>6</v>
+      </c>
+      <c r="C35" s="9">
+        <v>6</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2</v>
+      </c>
+      <c r="F35" s="9">
+        <v>30</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="9">
+        <v>615</v>
+      </c>
+      <c r="I35" s="9">
+        <v>89.65</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L35" s="9">
+        <v>1</v>
+      </c>
+      <c r="M35" s="9">
+        <v>171</v>
+      </c>
+      <c r="N35" s="9">
+        <v>12.74</v>
+      </c>
+      <c r="O35" s="10">
+        <v>15</v>
+      </c>
+      <c r="P35" s="9">
+        <v>20240</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>171</v>
+      </c>
+      <c r="R35" s="9">
+        <v>22.76</v>
+      </c>
+      <c r="S35" s="9">
+        <v>59.48</v>
+      </c>
+      <c r="T35" s="9">
+        <v>14.98</v>
+      </c>
+      <c r="U35" s="9">
+        <v>17</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="W35" s="9">
+        <v>90105</v>
+      </c>
+      <c r="X35" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="9" customFormat="1">
+      <c r="A36" s="8">
+        <v>2</v>
+      </c>
+      <c r="B36" s="9">
+        <v>6</v>
+      </c>
+      <c r="C36" s="9">
+        <v>6</v>
+      </c>
+      <c r="E36" s="9">
+        <v>2</v>
+      </c>
+      <c r="F36" s="9">
+        <v>30</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="9">
+        <v>615</v>
+      </c>
+      <c r="I36" s="9">
+        <v>89.65</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L36" s="9">
+        <v>1</v>
+      </c>
+      <c r="M36" s="9">
+        <v>171</v>
+      </c>
+      <c r="N36" s="9">
+        <v>12.74</v>
+      </c>
+      <c r="O36" s="10">
+        <v>17</v>
+      </c>
+      <c r="P36" s="9">
+        <v>20240</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>171</v>
+      </c>
+      <c r="R36" s="9">
+        <v>24.32</v>
+      </c>
+      <c r="S36" s="9">
+        <v>55.91</v>
+      </c>
+      <c r="T36" s="9">
+        <v>14.98</v>
+      </c>
+      <c r="U36" s="9">
+        <v>17</v>
+      </c>
+      <c r="V36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="W36" s="9">
+        <v>90105</v>
+      </c>
+      <c r="X36" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" s="9" customFormat="1">
+      <c r="A37" s="8">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9">
+        <v>6</v>
+      </c>
+      <c r="C37" s="9">
+        <v>2</v>
+      </c>
+      <c r="E37" s="9">
+        <v>2</v>
+      </c>
+      <c r="F37" s="9">
+        <v>30</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="9">
+        <v>615</v>
+      </c>
+      <c r="I37" s="9">
+        <v>89.65</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1</v>
+      </c>
+      <c r="M37" s="9">
+        <v>171</v>
+      </c>
+      <c r="N37" s="9">
+        <v>12.74</v>
+      </c>
+      <c r="O37" s="10">
+        <v>19</v>
+      </c>
+      <c r="P37" s="9">
+        <v>20240</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>171</v>
+      </c>
+      <c r="R37" s="9">
+        <v>25.48</v>
+      </c>
+      <c r="S37" s="9">
+        <v>53.45</v>
+      </c>
+      <c r="T37" s="9">
+        <v>14.98</v>
+      </c>
+      <c r="U37" s="9">
+        <v>17</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="W37" s="9">
+        <v>90105</v>
+      </c>
+      <c r="X37" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
+  <mergeCells count="7">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2430,34 +3253,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+      <selection activeCell="J2" sqref="J2:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="11"/>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -2478,8 +3307,58 @@
         <f>E2/B2</f>
         <v>0.5717255717255717</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2">
+        <v>2300</v>
+      </c>
+      <c r="J2">
+        <v>1194</v>
+      </c>
+      <c r="K2">
+        <v>342</v>
+      </c>
+      <c r="L2">
+        <f>J2/I2</f>
+        <v>0.51913043478260867</v>
+      </c>
+      <c r="M2">
+        <f>K2/I2</f>
+        <v>0.14869565217391303</v>
+      </c>
+      <c r="O2">
+        <v>2300</v>
+      </c>
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2">
+        <v>1650</v>
+      </c>
+      <c r="R2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2">
+        <v>1650</v>
+      </c>
+      <c r="V2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2">
+        <v>1194</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2">
+        <v>1246</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2500,8 +3379,58 @@
         <f t="shared" ref="F3:F20" si="1">E3/B3</f>
         <v>0.59124087591240881</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3">
+        <v>2322</v>
+      </c>
+      <c r="J3">
+        <v>1230</v>
+      </c>
+      <c r="K3">
+        <v>342</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L20" si="2">J3/I3</f>
+        <v>0.52971576227390182</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M20" si="3">K3/I3</f>
+        <v>0.14728682170542637</v>
+      </c>
+      <c r="O3">
+        <v>2322</v>
+      </c>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3">
+        <v>1654</v>
+      </c>
+      <c r="R3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3">
+        <v>1704</v>
+      </c>
+      <c r="V3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y3">
+        <v>1230</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA3">
+        <v>1288</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -2522,8 +3451,58 @@
         <f t="shared" si="1"/>
         <v>0.57965056526207603</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4">
+        <v>2302</v>
+      </c>
+      <c r="J4">
+        <v>1222</v>
+      </c>
+      <c r="K4">
+        <v>342</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.53084274543874888</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>0.14856646394439618</v>
+      </c>
+      <c r="O4">
+        <v>2302</v>
+      </c>
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4">
+        <v>1636</v>
+      </c>
+      <c r="R4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4">
+        <v>1690</v>
+      </c>
+      <c r="V4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y4">
+        <v>1222</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA4">
+        <v>1282</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2544,8 +3523,58 @@
         <f t="shared" si="1"/>
         <v>0.58472803347280333</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>2254</v>
+      </c>
+      <c r="J5">
+        <v>1214</v>
+      </c>
+      <c r="K5">
+        <v>342</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.53859804791481813</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>0.15173025732031944</v>
+      </c>
+      <c r="O5">
+        <v>2254</v>
+      </c>
+      <c r="P5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5">
+        <v>1668</v>
+      </c>
+      <c r="R5" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5">
+        <v>1648</v>
+      </c>
+      <c r="V5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5">
+        <v>1214</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA5">
+        <v>1266</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2566,8 +3595,58 @@
         <f t="shared" si="1"/>
         <v>0.57740585774058573</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6">
+        <v>2320</v>
+      </c>
+      <c r="J6">
+        <v>1248</v>
+      </c>
+      <c r="K6">
+        <v>342</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.53793103448275859</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.14741379310344827</v>
+      </c>
+      <c r="O6">
+        <v>2320</v>
+      </c>
+      <c r="P6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6">
+        <v>1682</v>
+      </c>
+      <c r="R6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6">
+        <v>1700</v>
+      </c>
+      <c r="V6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6">
+        <v>1248</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA6">
+        <v>1302</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -2588,8 +3667,58 @@
         <f t="shared" si="1"/>
         <v>0.57704239917269906</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7">
+        <v>2248</v>
+      </c>
+      <c r="J7">
+        <v>1202</v>
+      </c>
+      <c r="K7">
+        <v>342</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.53469750889679712</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0.15213523131672599</v>
+      </c>
+      <c r="O7">
+        <v>2248</v>
+      </c>
+      <c r="P7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7">
+        <v>1682</v>
+      </c>
+      <c r="R7" t="s">
+        <v>84</v>
+      </c>
+      <c r="U7">
+        <v>1650</v>
+      </c>
+      <c r="V7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y7">
+        <v>1202</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA7">
+        <v>1262</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2610,8 +3739,58 @@
         <f t="shared" si="1"/>
         <v>0.57801047120418847</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8">
+        <v>2290</v>
+      </c>
+      <c r="J8">
+        <v>1218</v>
+      </c>
+      <c r="K8">
+        <v>342</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.53187772925764187</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.14934497816593886</v>
+      </c>
+      <c r="O8">
+        <v>2290</v>
+      </c>
+      <c r="P8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8">
+        <v>1662</v>
+      </c>
+      <c r="R8" t="s">
+        <v>85</v>
+      </c>
+      <c r="U8">
+        <v>1684</v>
+      </c>
+      <c r="V8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y8">
+        <v>1218</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA8">
+        <v>1272</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2632,8 +3811,58 @@
         <f t="shared" si="1"/>
         <v>0.56818181818181823</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9">
+        <v>2280</v>
+      </c>
+      <c r="J9">
+        <v>1214</v>
+      </c>
+      <c r="K9">
+        <v>342</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.53245614035087718</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="O9">
+        <v>2280</v>
+      </c>
+      <c r="P9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9">
+        <v>1642</v>
+      </c>
+      <c r="R9" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9">
+        <v>1660</v>
+      </c>
+      <c r="V9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y9">
+        <v>1214</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA9">
+        <v>1268</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2654,8 +3883,58 @@
         <f t="shared" si="1"/>
         <v>0.57696335078534033</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10">
+        <v>2272</v>
+      </c>
+      <c r="J10">
+        <v>1216</v>
+      </c>
+      <c r="K10">
+        <v>342</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.53521126760563376</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>0.1505281690140845</v>
+      </c>
+      <c r="O10">
+        <v>2272</v>
+      </c>
+      <c r="P10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10">
+        <v>1638</v>
+      </c>
+      <c r="R10" t="s">
+        <v>87</v>
+      </c>
+      <c r="U10">
+        <v>1662</v>
+      </c>
+      <c r="V10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10">
+        <v>1216</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA10">
+        <v>1268</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2676,8 +3955,58 @@
         <f t="shared" si="1"/>
         <v>0.58358974358974358</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11">
+        <v>2266</v>
+      </c>
+      <c r="J11">
+        <v>1222</v>
+      </c>
+      <c r="K11">
+        <v>342</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.5392762577228597</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>0.15092674315975288</v>
+      </c>
+      <c r="O11">
+        <v>2266</v>
+      </c>
+      <c r="P11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11">
+        <v>1678</v>
+      </c>
+      <c r="R11" t="s">
+        <v>88</v>
+      </c>
+      <c r="U11">
+        <v>1680</v>
+      </c>
+      <c r="V11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y11">
+        <v>1222</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA11">
+        <v>1278</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -2698,8 +4027,58 @@
         <f t="shared" si="1"/>
         <v>0.57260556127703399</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12">
+        <v>2274</v>
+      </c>
+      <c r="J12">
+        <v>1226</v>
+      </c>
+      <c r="K12">
+        <v>342</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.53913808267370278</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>0.15039577836411611</v>
+      </c>
+      <c r="O12">
+        <v>2274</v>
+      </c>
+      <c r="P12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12">
+        <v>1656</v>
+      </c>
+      <c r="R12" t="s">
+        <v>89</v>
+      </c>
+      <c r="U12">
+        <v>1678</v>
+      </c>
+      <c r="V12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y12">
+        <v>1226</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA12">
+        <v>1286</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2720,8 +4099,58 @@
         <f t="shared" si="1"/>
         <v>0.58054393305439334</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13">
+        <v>2256</v>
+      </c>
+      <c r="J13">
+        <v>1220</v>
+      </c>
+      <c r="K13">
+        <v>342</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.54078014184397161</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>0.15159574468085107</v>
+      </c>
+      <c r="O13">
+        <v>2256</v>
+      </c>
+      <c r="P13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13">
+        <v>1656</v>
+      </c>
+      <c r="R13" t="s">
+        <v>90</v>
+      </c>
+      <c r="U13">
+        <v>1668</v>
+      </c>
+      <c r="V13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y13">
+        <v>1220</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA13">
+        <v>1274</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2742,8 +4171,58 @@
         <f t="shared" si="1"/>
         <v>0.582815734989648</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14">
+        <v>2286</v>
+      </c>
+      <c r="J14">
+        <v>1228</v>
+      </c>
+      <c r="K14">
+        <v>342</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.53718285214348205</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>0.14960629921259844</v>
+      </c>
+      <c r="O14">
+        <v>2286</v>
+      </c>
+      <c r="P14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14">
+        <v>1638</v>
+      </c>
+      <c r="R14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U14">
+        <v>1680</v>
+      </c>
+      <c r="V14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y14">
+        <v>1228</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA14">
+        <v>1286</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2764,8 +4243,58 @@
         <f t="shared" si="1"/>
         <v>0.57334710743801653</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15">
+        <v>2286</v>
+      </c>
+      <c r="J15">
+        <v>1230</v>
+      </c>
+      <c r="K15">
+        <v>342</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.53805774278215224</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>0.14960629921259844</v>
+      </c>
+      <c r="O15">
+        <v>2286</v>
+      </c>
+      <c r="P15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q15">
+        <v>1680</v>
+      </c>
+      <c r="R15" t="s">
+        <v>92</v>
+      </c>
+      <c r="U15">
+        <v>1682</v>
+      </c>
+      <c r="V15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y15">
+        <v>1230</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA15">
+        <v>1288</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -2786,8 +4315,58 @@
         <f t="shared" si="1"/>
         <v>0.58127572016460904</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16">
+        <v>2260</v>
+      </c>
+      <c r="J16">
+        <v>1204</v>
+      </c>
+      <c r="K16">
+        <v>342</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.53274336283185841</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>0.15132743362831858</v>
+      </c>
+      <c r="O16">
+        <v>2260</v>
+      </c>
+      <c r="P16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16">
+        <v>1650</v>
+      </c>
+      <c r="R16" t="s">
+        <v>93</v>
+      </c>
+      <c r="U16">
+        <v>1666</v>
+      </c>
+      <c r="V16" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y16">
+        <v>1204</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA16">
+        <v>1260</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -2808,8 +4387,58 @@
         <f t="shared" si="1"/>
         <v>0.57538461538461538</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17">
+        <v>2260</v>
+      </c>
+      <c r="J17">
+        <v>1208</v>
+      </c>
+      <c r="K17">
+        <v>342</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0.53451327433628315</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>0.15132743362831858</v>
+      </c>
+      <c r="O17">
+        <v>2260</v>
+      </c>
+      <c r="P17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17">
+        <v>1650</v>
+      </c>
+      <c r="R17" t="s">
+        <v>94</v>
+      </c>
+      <c r="U17">
+        <v>1660</v>
+      </c>
+      <c r="V17" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y17">
+        <v>1208</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA17">
+        <v>1266</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -2830,8 +4459,58 @@
         <f t="shared" si="1"/>
         <v>0.58210526315789479</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18">
+        <v>2294</v>
+      </c>
+      <c r="J18">
+        <v>1236</v>
+      </c>
+      <c r="K18">
+        <v>342</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0.53879686137750649</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>0.14908456843940715</v>
+      </c>
+      <c r="O18">
+        <v>2294</v>
+      </c>
+      <c r="P18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18">
+        <v>1658</v>
+      </c>
+      <c r="R18" t="s">
+        <v>95</v>
+      </c>
+      <c r="U18">
+        <v>1690</v>
+      </c>
+      <c r="V18" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y18">
+        <v>1236</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA18">
+        <v>1294</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2852,8 +4531,58 @@
         <f t="shared" si="1"/>
         <v>0.58472803347280333</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="H19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19">
+        <v>2282</v>
+      </c>
+      <c r="J19">
+        <v>1216</v>
+      </c>
+      <c r="K19">
+        <v>342</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0.53286590709903592</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>0.14986853637160386</v>
+      </c>
+      <c r="O19">
+        <v>2282</v>
+      </c>
+      <c r="P19" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q19">
+        <v>1644</v>
+      </c>
+      <c r="R19" t="s">
+        <v>96</v>
+      </c>
+      <c r="U19">
+        <v>1676</v>
+      </c>
+      <c r="V19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y19">
+        <v>1216</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA19">
+        <v>1274</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2874,10 +4603,65 @@
         <f t="shared" si="1"/>
         <v>0.57232049947970864</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="J31" t="s">
-        <v>53</v>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20">
+        <v>2320</v>
+      </c>
+      <c r="J20">
+        <v>1236</v>
+      </c>
+      <c r="K20">
+        <v>342</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0.53275862068965518</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>0.14741379310344827</v>
+      </c>
+      <c r="O20">
+        <v>2320</v>
+      </c>
+      <c r="P20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20">
+        <v>1662</v>
+      </c>
+      <c r="R20" t="s">
+        <v>97</v>
+      </c>
+      <c r="U20">
+        <v>1686</v>
+      </c>
+      <c r="V20" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y20">
+        <v>1236</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA20">
+        <v>1288</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="L21">
+        <f>AVERAGE(L2:L20)</f>
+        <v>0.53455651444759444</v>
+      </c>
+      <c r="M21">
+        <f>AVERAGE(M2:M20)</f>
+        <v>0.14983442087080348</v>
       </c>
     </row>
   </sheetData>
@@ -2906,34 +4690,34 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3"/>
+      <c r="N1" s="11"/>
       <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="3"/>
+      <c r="R1" s="11"/>
       <c r="S1" t="s">
         <v>18</v>
       </c>
@@ -2996,12 +4780,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/RADsimulationRestuls.xlsx
+++ b/RADsimulationRestuls.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="0" windowWidth="37260" windowHeight="19100" tabRatio="500"/>
+    <workbookView xWindow="2980" yWindow="0" windowWidth="37260" windowHeight="19100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1243,7 +1243,7 @@
     <col min="12" max="12" width="13.5" customWidth="1"/>
     <col min="13" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="4.5" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" customWidth="1"/>
     <col min="17" max="20" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3256,7 +3256,7 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J20"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
